--- a/Investment/THS/AutoTrade/data/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/account_info.xlsx
@@ -469,32 +469,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.3%</t>
+          <t>仓位 99.0%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>99,514.39</t>
+          <t>12,893.35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>98,832.70</t>
+          <t>12,765.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,615.02</t>
+          <t>+621.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>681.69</t>
+          <t>122.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>681.69</t>
+          <t>122.85</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,432 +547,189 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒润股份</t>
+          <t>首创奥莱</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,923.00</t>
+          <t>5,017.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>258.00/5.531%</t>
+          <t>21.60/0.432%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>1200/100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15.761/16.410</t>
+          <t>3.920/4.181</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4,516.00</t>
+          <t>1,272.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44.00/0.984%</t>
+          <t>6.00/0.474%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>400/400</t>
+          <t>300/300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11.288/11.290</t>
+          <t>4.190/4.240</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>东方创业</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3,072.00</t>
+          <t>2,472.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>32.00/1.053%</t>
+          <t>2.97/0.119%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>400/400</t>
+          <t>800/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.465/7.680</t>
+          <t>3.086/3.090</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏龙头ETF</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4,693.50</t>
+          <t>561.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21.00/0.449%</t>
+          <t>-3.00/-0.532%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10500/10500</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.426/0.447</t>
+          <t>5.651/5.610</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>海南华铁</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>1,173.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20.00/</t>
+          <t>-8.01/-0.678%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>500/</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.877/</t>
+          <t>11.810/11.730</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>博威合金</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4,138.00</t>
+          <t>1,849.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.03/0.260%</t>
+          <t>-8.02/-0.431%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.636/20.690</t>
+          <t>18.570/18.490</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>物美消费</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11,287.80</t>
+          <t>421.30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.00/0.080%</t>
+          <t>-47.00/-0.928%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>900/900</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.036/12.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>国债政金债ETF</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10,789.60</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.50/0.014%</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>107.607/107.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>工商银行</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1,560.00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.00/0.000%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.557/7.800</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4,473.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-7.00/-0.156%</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>700/700</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.134/6.390</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6,718.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-10.00/-0.149%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>33.533/33.590</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>中国电信</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3,056.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-12.00/-0.391%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>400/400</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.634/7.640</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4,354.00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-31.12/-0.723%</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>700/0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.265/6.220</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>黄金ETF华夏</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6,697.80</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-31.50/-0.468%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>900/900</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.420/7.442</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>贵阳银行</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4,056.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-72.00/-1.744%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>600/600</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.545/6.760</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>6,608.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-100.83/-1.510%</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>400/0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>16.773/16.520</t>
+          <t>1.103/4.213</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/account_info.xlsx
@@ -469,32 +469,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.0%</t>
+          <t>仓位 63.1%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12,893.35</t>
+          <t>81,740.91</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12,765.50</t>
+          <t>51,541.80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+621.55</t>
+          <t>+1,420.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>122.85</t>
+          <t>30,199.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>122.85</t>
+          <t>36.46</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,179 +547,179 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>首创奥莱</t>
+          <t>东阳光</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5,017.20</t>
+          <t>4,449.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21.60/0.432%</t>
+          <t>306.05/7.390%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1200/100</t>
+          <t>300/300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.920/4.181</t>
+          <t>13.810/14.830</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>紫金矿业</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,272.00</t>
+          <t>3,918.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.00/0.474%</t>
+          <t>15.38/0.390%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.190/4.240</t>
+          <t>19.514/19.590</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>华设集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,472.00</t>
+          <t>4,325.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.97/0.119%</t>
+          <t>111.91/2.650%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>800/0</t>
+          <t>500/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.086/3.090</t>
+          <t>8.427/8.650</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>561.00</t>
+          <t>4,072.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.00/-0.532%</t>
+          <t>1.06/0.020%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>400/0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.651/5.610</t>
+          <t>10.178/10.180</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>海南华铁</t>
+          <t>深圳新星</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,173.00</t>
+          <t>3,492.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-8.01/-0.678%</t>
+          <t>-64.55/-1.820%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>200/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.810/11.730</t>
+          <t>17.784/17.460</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>博威合金</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,849.00</t>
+          <t>11,599.20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-8.02/-0.431%</t>
+          <t>766.57/7.080%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>900/900</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.570/18.490</t>
+          <t>12.036/12.888</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>物美消费</t>
+          <t>国债政金债ETF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>421.30</t>
+          <t>10,783.40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-47.00/-0.928%</t>
+          <t>22.68/0.210%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -729,7 +729,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.103/4.213</t>
+          <t>107.607/107.834</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>黄金ETF华夏</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6,667.20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-10.54/-0.160%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>900/900</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.420/7.408</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2,236.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.50/0.100%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>200/200</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11.168/11.180</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/account_info.xlsx
@@ -7,8 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表头数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="持仓数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,32 +473,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 63.1%</t>
+          <t>仓位 98.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>81,740.91</t>
+          <t>58,661.63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>51,541.80</t>
+          <t>58,043.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,420.54</t>
+          <t>+1,920.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30,199.11</t>
+          <t>618.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>36.46</t>
+          <t>618.13</t>
         </is>
       </c>
     </row>
@@ -509,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,179 +551,179 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>东阳光</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,449.00</t>
+          <t>3,709.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>306.05/7.390%</t>
+          <t>-187.50/-4.820%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13.810/14.830</t>
+          <t>38.968/37.090</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3,918.00</t>
+          <t>4,431.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15.38/0.390%</t>
+          <t>12.02/0.270%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>300/300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19.514/19.590</t>
+          <t>14.731/14.770</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>华设集团</t>
+          <t>林海股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4,325.00</t>
+          <t>4,776.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111.91/2.650%</t>
+          <t>208.81/4.570%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>500/0</t>
+          <t>400/400</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.427/8.650</t>
+          <t>11.418/11.940</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>金鹰股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4,072.00</t>
+          <t>783.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.06/0.020%</t>
+          <t>143.49/22.420%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>400/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.178/10.180</t>
+          <t>6.396/7.830</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>深圳新星</t>
+          <t>曙光股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3,492.00</t>
+          <t>4,784.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-64.55/-1.820%</t>
+          <t>-29.21/-0.610%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>1300/1300</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.784/17.460</t>
+          <t>3.703/3.680</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11,599.20</t>
+          <t>4,851.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>766.57/7.080%</t>
+          <t>171.76/3.670%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>900/900</t>
+          <t>700/700</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.036/12.888</t>
+          <t>6.685/6.930</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>国债政金债ETF</t>
+          <t>中重科技</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10,783.40</t>
+          <t>1,045.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22.68/0.210%</t>
+          <t>34.30/3.370%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -729,61 +733,670 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>107.607/107.834</t>
+          <t>10.109/10.450</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>黄金ETF华夏</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6,667.20</t>
+          <t>4,758.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-10.54/-0.160%</t>
+          <t>323.85/7.303%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>900/900</t>
+          <t>300/300</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.420/7.408</t>
+          <t>14.781/15.860</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>镇海股份</t>
+          <t>百达精工</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2,236.00</t>
+          <t>1,119.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.50/0.100%</t>
+          <t>56.25/5.280%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.629/11.190</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4,536.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>232.97/5.413%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>400/400</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.758/11.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>714.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.52/2.051%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.997/7.140</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>可转债ETF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11,752.20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>919.57/8.493%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>900/900</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.036/13.058</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>国债政金债ETF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10,794.30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>33.58/0.310%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>107.607/107.943</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>仓位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总市值</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>浮动盈亏</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>可取</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>仓位 77.1%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22,613.87</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17,441.10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+1,425.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,172.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>172.62</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>当日盈亏/盈亏率</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>持仓/可用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>成本/现价</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>金诚信</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5,043.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>177.53/3.648%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.655/50.430</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>云南锗业</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4,504.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>157.59/3.626%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>200/200</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>11.168/11.180</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.732/22.520</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4,236.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>219.62/5.468%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>400/400</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10.041/10.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2,800.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>259.75/10.223%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.403/28.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>424.90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>283.11/199.647%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.418/4.249</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>物美消费</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>433.20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>327.67/310.616%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.055/4.332</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>仓位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总市值</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>浮动盈亏</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>可取</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>仓位 49.8%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>28,498.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14,180.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-96.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14,316.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14,316.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>当日盈亏/盈亏率</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>持仓/可用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>成本/现价</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4,850.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-64.42/-1.310%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200/200</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.572/24.250</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4,715.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-75.41/-1.576%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>500/500</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9.581/9.430</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4,615.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>43.61/0.954%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45.714/46.150</t>
         </is>
       </c>
     </row>
